--- a/game_files/template.xlsx
+++ b/game_files/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\mlb-game\game_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E15D5AB-4C73-42A5-8D19-0A49DB0CC1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E132BC1-B939-4DC2-9497-4987C2A18748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16350" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Marlins</t>
   </si>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t>Red Sox</t>
+  </si>
+  <si>
+    <t>mapping</t>
+  </si>
+  <si>
+    <t>owner</t>
   </si>
   <si>
     <t>team</t>
@@ -537,70 +540,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>1</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>2</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>3</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>4</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>5</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>6</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>7</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>8</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>9</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>10</v>
       </c>
-      <c r="N1" s="3">
+      <c r="O1" s="3">
         <v>11</v>
       </c>
-      <c r="O1" s="3">
+      <c r="P1" s="3">
         <v>12</v>
       </c>
-      <c r="P1" s="3">
+      <c r="Q1" s="3">
         <v>13</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -619,9 +620,9 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -640,9 +641,9 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -661,9 +662,9 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -682,9 +683,9 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -703,9 +704,9 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -724,9 +725,9 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -745,9 +746,9 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -766,9 +767,9 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -787,9 +788,9 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -808,9 +809,9 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -829,9 +830,9 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -850,9 +851,9 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -871,9 +872,9 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -892,9 +893,9 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -913,9 +914,9 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -934,9 +935,9 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -955,9 +956,9 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -976,9 +977,9 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -997,9 +998,9 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1018,9 +1019,9 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1039,9 +1040,9 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1060,9 +1061,9 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1081,9 +1082,9 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1102,9 +1103,9 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1123,9 +1124,9 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1144,9 +1145,9 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1165,9 +1166,9 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1186,9 +1187,9 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1207,9 +1208,9 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>

--- a/game_files/template.xlsx
+++ b/game_files/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\mlb-game\game_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E132BC1-B939-4DC2-9497-4987C2A18748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E0430-D203-4AB1-A393-73B08FD074C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Marlins</t>
   </si>
@@ -119,6 +119,78 @@
   </si>
   <si>
     <t>team</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Chicago Cubs</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Detroit Tigers</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Miami Marlins</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Oakland A's</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>Tampa Bay</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Washington</t>
   </si>
 </sst>
 </file>
@@ -218,9 +290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,9 +330,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,26 +365,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,26 +400,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -540,7 +578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -599,9 +639,11 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -620,9 +662,11 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -641,9 +685,11 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -662,9 +708,11 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -683,9 +731,11 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -704,9 +754,11 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -725,9 +777,11 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -746,9 +800,11 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -767,9 +823,11 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -788,9 +846,11 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -809,9 +869,11 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -830,9 +892,11 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -851,9 +915,11 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -872,9 +938,11 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -893,9 +961,11 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -914,9 +984,11 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -935,9 +1007,11 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -956,9 +1030,11 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -977,9 +1053,11 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -998,9 +1076,11 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1019,9 +1099,11 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1040,9 +1122,11 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1061,9 +1145,11 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1082,9 +1168,11 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1103,9 +1191,11 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1124,9 +1214,11 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1145,9 +1237,11 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1166,9 +1260,11 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1187,9 +1283,11 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1208,9 +1306,11 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
